--- a/evaluation_examples/examples/sheetcopilot/cb074a90-17ca-4f2a-be85-6f3c354040be/4_IncomeStatement_gt1.xlsx
+++ b/evaluation_examples/examples/sheetcopilot/cb074a90-17ca-4f2a-be85-6f3c354040be/4_IncomeStatement_gt1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers_v2\IncomeStatement\4_IncomeStatement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujipqiu/Github/DesktopEnv/evaluation_examples/examples/sheetcopilot/cb074a90-17ca-4f2a-be85-6f3c354040be/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F92DF7-3300-455B-9E89-18E87D311E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360E6144-221F-4E4D-92A1-2A912B2E4CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
@@ -50,13 +50,10 @@
     <t>Net Profit</t>
   </si>
   <si>
-    <t>行标签</t>
+    <t>Sum - Operating Expenses</t>
   </si>
   <si>
-    <t>求和项:Operating Expenses</t>
-  </si>
-  <si>
-    <t>总计</t>
+    <t>Total Result</t>
   </si>
 </sst>
 </file>
@@ -66,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,7 +102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,9 +116,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -197,7 +191,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
   <r>
     <x v="0"/>
     <n v="74000"/>
@@ -215,7 +209,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <n v="20.4"/>
+    <n v="20.399999999999999"/>
     <m/>
   </r>
   <r>
@@ -255,7 +249,7 @@
     <m/>
     <x v="5"/>
     <m/>
-    <n v="686.4000000000001"/>
+    <n v="686.40000000000009"/>
     <m/>
   </r>
   <r>
@@ -282,7 +276,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable6" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total Result" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
   <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -354,7 +348,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="求和项:Operating Expenses" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum - Operating Expenses" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -665,92 +659,92 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>2015</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>37322</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>2016</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>44450</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>2017</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>40498</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>2018</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>43552</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>2019</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>45691</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>2020</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>42820</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>46076</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>2022</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>38307</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>338716</v>
       </c>
     </row>
@@ -765,21 +759,21 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -825,7 +819,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -845,7 +839,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -865,7 +859,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -885,7 +879,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -905,7 +899,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -925,7 +919,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -945,7 +939,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>2022</v>
       </c>
